--- a/BNP Trades Tracker-2025-10-9.xlsx
+++ b/BNP Trades Tracker-2025-10-9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\57. BNP Trades Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D297A8D-6CBD-4F7E-B617-C8C4049B5EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDB3F98-FF16-45FF-BE55-4A8219EC2BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,182 +981,182 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3877657949</v>
+        <v>#N/A Requesting Data...1847937375</v>
         <stp/>
         <stp>BDH|10351313584699386816</stp>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2848720222</v>
+        <v>#N/A Requesting Data...2873182477</v>
         <stp/>
         <stp>BDH|11868297327508497130</stp>
         <tr r="Q3" s="12"/>
         <tr r="M3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3883201852</v>
+        <v>#N/A Requesting Data...2733278809</v>
         <stp/>
         <stp>BDP|11883986536691201393</stp>
         <tr r="C10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3277817787</v>
+        <v>#N/A Requesting Data...2174648330</v>
         <stp/>
         <stp>BDP|18062887627254797806</stp>
         <tr r="C10" s="12"/>
         <tr r="E10" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2859396271</v>
+        <v>#N/A Requesting Data...2761731489</v>
         <stp/>
         <stp>BDP|16545953933052450030</stp>
         <tr r="B10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1997945878</v>
+        <v>#N/A Requesting Data...2012345241</v>
         <stp/>
         <stp>BDH|16964208687670066093</stp>
         <tr r="M3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2371497735</v>
+        <v>#N/A Requesting Data...1361195808</v>
         <stp/>
         <stp>BDP|14650062796027575721</stp>
         <tr r="G10" s="12"/>
         <tr r="E10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4094860166</v>
+        <v>#N/A Requesting Data...2537823173</v>
         <stp/>
         <stp>BDH|15898023348904525848</stp>
         <tr r="B45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3126361428</v>
+        <v>#N/A Requesting Data...1636287218</v>
         <stp/>
         <stp>BDH|14554289658327214950</stp>
         <tr r="E3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3326519608</v>
+        <v>#N/A Requesting Data...1373879938</v>
         <stp/>
         <stp>BDH|14418508895895598068</stp>
         <tr r="M3" s="12"/>
         <tr r="I3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1978099365</v>
+        <v>#N/A Requesting Data...1754736950</v>
         <stp/>
         <stp>BDH|12461074316780829179</stp>
         <tr r="I3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2520715029</v>
+        <v>#N/A Requesting Data...3814434748</v>
         <stp/>
         <stp>BDP|12076286461161277423</stp>
         <tr r="C10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2531973499</v>
+        <v>#N/A Requesting Data...1602547893</v>
         <stp/>
         <stp>BDH|11939629486549063565</stp>
         <tr r="S3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2733098693</v>
+        <v>#N/A Requesting Data...3320127744</v>
         <stp/>
         <stp>BDP|18219294914923540841</stp>
         <tr r="C10" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2903929976</v>
+        <v>#N/A Requesting Data...2580533586</v>
         <stp/>
         <stp>BDH|14652635060546728265</stp>
         <tr r="H45" s="12"/>
         <tr r="D45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3475461046</v>
+        <v>#N/A Requesting Data...2191617091</v>
         <stp/>
         <stp>BDH|13667166925681071115</stp>
         <tr r="J45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3521616392</v>
+        <v>#N/A Requesting Data...1489418114</v>
         <stp/>
         <stp>BDP|13030111079165378191</stp>
         <tr r="F10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1993199642</v>
+        <v>#N/A Requesting Data...3200078337</v>
         <stp/>
         <stp>BDP|17674809694487604003</stp>
         <tr r="B10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3491132411</v>
+        <v>#N/A Requesting Data...3383435713</v>
         <stp/>
         <stp>BDH|14683331255940957394</stp>
         <tr r="G3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3451478282</v>
+        <v>#N/A Requesting Data...1607742685</v>
         <stp/>
         <stp>BDH|12366418778878237806</stp>
         <tr r="L45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2895618520</v>
+        <v>#N/A Requesting Data...2741811906</v>
         <stp/>
         <stp>BDP|11473368239062878490</stp>
         <tr r="F10" s="12"/>
         <tr r="D10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2234821024</v>
+        <v>#N/A Requesting Data...1396063338</v>
         <stp/>
         <stp>BDP|14572736216992007722</stp>
         <tr r="B10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2838266921</v>
+        <v>#N/A Requesting Data...2477622374</v>
         <stp/>
         <stp>BDH|12097978624338460624</stp>
         <tr r="Q3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4124019668</v>
+        <v>#N/A Requesting Data...4247561694</v>
         <stp/>
         <stp>BDP|13060443244535072213</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3893624550</v>
+        <v>#N/A Requesting Data...2807977895</v>
         <stp/>
         <stp>BDH|16635641902843555704</stp>
         <tr r="O3" s="12"/>
         <tr r="K3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2668760596</v>
+        <v>#N/A Requesting Data...4040707317</v>
         <stp/>
         <stp>BDH|13384596211472988165</stp>
         <tr r="J3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2331081472</v>
+        <v>#N/A Requesting Data...2660002545</v>
         <stp/>
         <stp>BDH|11325884833647718981</stp>
         <tr r="H45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2264115131</v>
+        <v>#N/A Requesting Data...2986182096</v>
         <stp/>
         <stp>BDP|17166731865344641740</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2357888071</v>
+        <v>#N/A Requesting Data...3199862872</v>
         <stp/>
         <stp>BDH|12396439488739152202</stp>
         <tr r="B45" s="12"/>
@@ -1164,219 +1164,219 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2356767579</v>
+        <v>#N/A Requesting Data...3707737518</v>
         <stp/>
         <stp>BDH|1028538880712934288</stp>
         <tr r="S3" s="12"/>
         <tr r="O3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3696710157</v>
+        <v>#N/A Requesting Data...3544414469</v>
         <stp/>
         <stp>BDH|5169224297170435259</stp>
         <tr r="G3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2358554786</v>
+        <v>#N/A Requesting Data...1428287938</v>
         <stp/>
         <stp>BDH|6052060976555878966</stp>
         <tr r="I3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2528940638</v>
+        <v>#N/A Requesting Data...1530721111</v>
         <stp/>
         <stp>BDH|9756339051981360120</stp>
         <tr r="K3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3173404305</v>
+        <v>#N/A Requesting Data...4115400083</v>
         <stp/>
         <stp>BDH|3945821647056979165</stp>
         <tr r="E3" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2225591393</v>
+        <v>#N/A Requesting Data...3701476785</v>
         <stp/>
         <stp>BDP|9706553668206945454</stp>
         <tr r="D10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3094904787</v>
+        <v>#N/A Requesting Data...3272234334</v>
         <stp/>
         <stp>BDH|9289027572525667322</stp>
         <tr r="K3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906750574</v>
+        <v>#N/A Requesting Data...3434525565</v>
         <stp/>
         <stp>BDH|5499482882290106023</stp>
         <tr r="K3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2605511182</v>
+        <v>#N/A Requesting Data...2684115442</v>
         <stp/>
         <stp>BDP|4329662592027264695</stp>
         <tr r="B10" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2168727821</v>
+        <v>#N/A Requesting Data...3932446081</v>
         <stp/>
         <stp>BDH|6427274484614669205</stp>
         <tr r="M3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2668977557</v>
+        <v>#N/A Requesting Data...2028556995</v>
         <stp/>
         <stp>BDH|7054570275427739937</stp>
         <tr r="N3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2987605811</v>
+        <v>#N/A Requesting Data...1677645076</v>
         <stp/>
         <stp>BDH|5710079974310159915</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1996857495</v>
+        <v>#N/A Requesting Data...4251950793</v>
         <stp/>
         <stp>BDP|6614610459362681385</stp>
         <tr r="E10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2019660862</v>
+        <v>#N/A Requesting Data...3745549176</v>
         <stp/>
         <stp>BDH|2184028517626785080</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2261235135</v>
+        <v>#N/A Requesting Data...3446738893</v>
         <stp/>
         <stp>BDH|4800396880739900349</stp>
         <tr r="D45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2697633511</v>
+        <v>#N/A Requesting Data...3428321963</v>
         <stp/>
         <stp>BDP|3122389811593012513</stp>
         <tr r="C10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3246777073</v>
+        <v>#N/A Requesting Data...3037665717</v>
         <stp/>
         <stp>BDH|3407640349110063662</stp>
         <tr r="L45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2516970331</v>
+        <v>#N/A Requesting Data...3470421876</v>
         <stp/>
         <stp>BDH|4695581477882603444</stp>
         <tr r="F45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2366656513</v>
+        <v>#N/A Requesting Data...1563346941</v>
         <stp/>
         <stp>BDP|1931107217112743305</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4034956551</v>
+        <v>#N/A Requesting Data...3046537228</v>
         <stp/>
         <stp>BDP|8919074471278682748</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3605079322</v>
+        <v>#N/A Requesting Data...1609686767</v>
         <stp/>
         <stp>BDP|6499873574608943180</stp>
         <tr r="B10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2265265619</v>
+        <v>#N/A Requesting Data...1870523442</v>
         <stp/>
         <stp>BDP|9073119891745028595</stp>
         <tr r="E10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3109298341</v>
+        <v>#N/A Requesting Data...3197343988</v>
         <stp/>
         <stp>BDP|7280882837258491593</stp>
         <tr r="D10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2234071629</v>
+        <v>#N/A Requesting Data...4294579133</v>
         <stp/>
         <stp>BDH|1761758312845266334</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2480567996</v>
+        <v>#N/A Requesting Data...2429755752</v>
         <stp/>
         <stp>BDH|8429645527114728918</stp>
         <tr r="G3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3878146667</v>
+        <v>#N/A Requesting Data...2666080233</v>
         <stp/>
         <stp>BDH|1858332030387721460</stp>
         <tr r="J45" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2685513164</v>
+        <v>#N/A Requesting Data...4244319015</v>
         <stp/>
         <stp>BDP|4720520890802409863</stp>
         <tr r="B10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3405386688</v>
+        <v>#N/A Requesting Data...2310617751</v>
         <stp/>
         <stp>BDP|2192385730727379645</stp>
         <tr r="C10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2496487606</v>
+        <v>#N/A Requesting Data...2910036084</v>
         <stp/>
         <stp>BDH|7361281866961478167</stp>
         <tr r="F45" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2774561491</v>
+        <v>#N/A Requesting Data...1712092128</v>
         <stp/>
         <stp>BDH|1606979205929211226</stp>
         <tr r="G3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3721391663</v>
+        <v>#N/A Requesting Data...1878200503</v>
         <stp/>
         <stp>BDP|519161733290183679</stp>
         <tr r="B10" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3202849954</v>
+        <v>#N/A Requesting Data...3991348838</v>
         <stp/>
         <stp>BDP|332801733094788947</stp>
         <tr r="D10" s="12"/>
         <tr r="B10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3631870449</v>
+        <v>#N/A Requesting Data...3376839737</v>
         <stp/>
         <stp>BDP|416056535068485843</stp>
         <tr r="C10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2787806974</v>
+        <v>#N/A Requesting Data...3752202748</v>
         <stp/>
         <stp>BDP|967432059673127000</stp>
         <tr r="G10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3344696623</v>
+        <v>#N/A Requesting Data...1679717912</v>
         <stp/>
         <stp>BDH|755531004008709014</stp>
         <tr r="I3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3502245649</v>
+        <v>#N/A Requesting Data...1776645764</v>
         <stp/>
         <stp>BDH|991921203191783085</stp>
         <tr r="G3" s="9"/>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="M6" s="3">
         <f ca="1"/>
-        <v>104.05200000000001</v>
+        <v>104.021</v>
       </c>
       <c r="N6" s="53">
         <f ca="1"/>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="O6" s="3">
         <f ca="1"/>
-        <v>100.495</v>
+        <v>100.42400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -10247,11 +10247,11 @@
       </c>
       <c r="B10" s="20" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"PX_LAST")</f>
-        <v>104.0518</v>
+        <v>104.0206</v>
       </c>
       <c r="C10" s="13" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"PX_LAST")</f>
-        <v>100.495</v>
+        <v>100.42400000000001</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="1"/>
@@ -11562,7 +11562,7 @@
       </c>
       <c r="G6" s="1">
         <f ca="1"/>
-        <v>47.357999999999997</v>
+        <v>47.433</v>
       </c>
       <c r="H6" s="54">
         <f ca="1"/>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1"/>
-        <v>50.216999999999999</v>
+        <v>49.786999999999999</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="B10" s="21" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>47.357700000000001</v>
+        <v>47.43282</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="D10" s="22" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>50.21698</v>
+        <v>49.787210000000002</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="F6" s="1">
         <f ca="1"/>
-        <v>58.247999999999998</v>
+        <v>58.244</v>
       </c>
       <c r="G6" s="54">
         <f ca="1"/>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>40.404000000000003</v>
+        <v>40.569000000000003</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -12767,11 +12767,11 @@
       </c>
       <c r="B10" s="21" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>58.248260000000002</v>
+        <v>58.243549999999999</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>40.403919999999999</v>
+        <v>40.568620000000003</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="F6" s="1">
         <f ca="1"/>
-        <v>94.628</v>
+        <v>94.617999999999995</v>
       </c>
       <c r="G6" s="54">
         <f ca="1"/>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>105.76900000000001</v>
+        <v>105.73099999999999</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="73"/>
@@ -13670,11 +13670,11 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>94.628</v>
+        <v>94.617999999999995</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>105.76900000000001</v>
+        <v>105.73099999999999</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>100.649</v>
+        <v>100.658</v>
       </c>
       <c r="I6" s="54">
         <f ca="1"/>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1"/>
-        <v>101.0078125</v>
+        <v>101.0390625</v>
       </c>
       <c r="K6" s="54">
         <f ca="1"/>
@@ -14539,7 +14539,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>94.271000000000001</v>
+        <v>94.263999999999996</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="N6" s="55">
         <f ca="1"/>
-        <v>100.3828125</v>
+        <v>100.421875</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -14629,19 +14629,19 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>100.649</v>
+        <v>100.658</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>101.015625</v>
+        <v>101.046875</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>94.271000000000001</v>
+        <v>94.263999999999996</v>
       </c>
       <c r="E10" s="22" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>100.40625</v>
+        <v>100.4375</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="H8" s="1">
         <f ca="1"/>
-        <v>46.634999999999998</v>
+        <v>46.633000000000003</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>46.635120000000001</v>
+        <v>46.632829999999998</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -16286,7 +16286,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>91.92</v>
+        <v>91.93</v>
       </c>
       <c r="I6" s="54">
         <f ca="1"/>
@@ -16532,7 +16532,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1"/>
-        <v>100.931</v>
+        <v>100.932</v>
       </c>
       <c r="K6" s="54">
         <f ca="1"/>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>121</v>
+        <v>120.92</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="N6" s="55">
         <f ca="1"/>
-        <v>99.546000000000006</v>
+        <v>99.552000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -16630,19 +16630,19 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>91.92</v>
+        <v>91.93</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>100.931</v>
+        <v>100.932</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>121</v>
+        <v>120.92</v>
       </c>
       <c r="E10" s="22" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>99.546000000000006</v>
+        <v>99.552000000000007</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1"/>
-        <v>80.415000000000006</v>
+        <v>80.45</v>
       </c>
       <c r="K6" s="54">
         <f ca="1"/>
@@ -17703,7 +17703,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>99.515625</v>
+        <v>99.5390625</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1"/>
-        <v>111.07</v>
+        <v>111.125</v>
       </c>
       <c r="O6" s="78">
         <f ca="1"/>
@@ -17719,7 +17719,7 @@
       </c>
       <c r="P6" s="55">
         <f ca="1"/>
-        <v>99.515625</v>
+        <v>99.5390625</v>
       </c>
       <c r="Q6" s="78">
         <f ca="1"/>
@@ -17727,7 +17727,7 @@
       </c>
       <c r="R6" s="55">
         <f ca="1"/>
-        <v>100.8984375</v>
+        <v>100.9296875</v>
       </c>
       <c r="S6" s="54">
         <f ca="1"/>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="T6" s="55">
         <f ca="1"/>
-        <v>100.421875</v>
+        <v>100.4609375</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17870,27 +17870,27 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>80.415000000000006</v>
+        <v>80.45</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>99.5234375</v>
+        <v>99.546875</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>111.07</v>
+        <v>111.125</v>
       </c>
       <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>99.5234375</v>
+        <v>99.546875</v>
       </c>
       <c r="F10" s="21" cm="1">
         <f t="array" ref="F10">_xll.BDP(F4,"px_last")</f>
-        <v>100.90625</v>
+        <v>100.9375</v>
       </c>
       <c r="G10" s="22" cm="1">
         <f t="array" ref="G10">_xll.BDP(G4,"px_last")</f>
-        <v>100.4375</v>
+        <v>100.46875</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="54"/>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="C61" s="55">
         <f ca="1"/>
-        <v>80.415000000000006</v>
+        <v>80.45</v>
       </c>
       <c r="D61" s="78">
         <f ca="1"/>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="E61" s="55">
         <f ca="1"/>
-        <v>99.515625</v>
+        <v>99.5390625</v>
       </c>
       <c r="F61" s="78">
         <f ca="1"/>
@@ -20501,7 +20501,7 @@
       </c>
       <c r="G61" s="55">
         <f ca="1"/>
-        <v>111.07</v>
+        <v>111.125</v>
       </c>
       <c r="H61" s="78">
         <f ca="1"/>
@@ -20509,7 +20509,7 @@
       </c>
       <c r="I61" s="55">
         <f ca="1"/>
-        <v>99.515625</v>
+        <v>99.5390625</v>
       </c>
       <c r="J61" s="78">
         <f ca="1"/>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="K61" s="55">
         <f ca="1"/>
-        <v>100.8984375</v>
+        <v>100.9296875</v>
       </c>
       <c r="L61" s="78">
         <f ca="1"/>
@@ -20525,7 +20525,7 @@
       </c>
       <c r="M61" s="55">
         <f ca="1"/>
-        <v>100.421875</v>
+        <v>100.4765625</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1"/>
-        <v>111.07</v>
+        <v>111.125</v>
       </c>
       <c r="K6" s="54">
         <f ca="1"/>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>99.51171875</v>
+        <v>99.53515625</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1"/>
-        <v>100.8984375</v>
+        <v>100.9296875</v>
       </c>
       <c r="O6" s="78">
         <f ca="1"/>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="P6" s="55">
         <f ca="1"/>
-        <v>100.421875</v>
+        <v>100.4609375</v>
       </c>
       <c r="Q6" s="78">
         <f ca="1"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="R6" s="55">
         <f ca="1"/>
-        <v>83.790099999999995</v>
+        <v>83.825000000000003</v>
       </c>
       <c r="S6" s="54">
         <f ca="1"/>
@@ -20984,7 +20984,7 @@
       </c>
       <c r="T6" s="55">
         <f ca="1"/>
-        <v>99.7265625</v>
+        <v>99.7578125</v>
       </c>
       <c r="V6" s="98" t="s">
         <v>80</v>
@@ -21116,27 +21116,27 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>111.07</v>
+        <v>111.125</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>99.515625</v>
+        <v>99.53125</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>100.90625</v>
+        <v>100.9375</v>
       </c>
       <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>100.4375</v>
+        <v>100.46875</v>
       </c>
       <c r="F10" s="21" cm="1">
         <f t="array" ref="F10">_xll.BDP(F4,"px_last")</f>
-        <v>83.790099999999995</v>
+        <v>83.825000000000003</v>
       </c>
       <c r="G10" s="22" cm="1">
         <f t="array" ref="G10">_xll.BDP(G4,"px_last")</f>
-        <v>99.734375</v>
+        <v>99.765625</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="54"/>
@@ -22905,7 +22905,7 @@
       </c>
       <c r="C53" s="60">
         <f ca="1"/>
-        <v>111.07</v>
+        <v>111.125</v>
       </c>
       <c r="D53" s="78">
         <f ca="1"/>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="E53" s="60">
         <f ca="1"/>
-        <v>99.51171875</v>
+        <v>99.53515625</v>
       </c>
       <c r="F53" s="78">
         <f ca="1"/>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="G53" s="55">
         <f ca="1"/>
-        <v>100.8984375</v>
+        <v>100.9296875</v>
       </c>
       <c r="H53" s="78">
         <f ca="1"/>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="I53" s="55">
         <f ca="1"/>
-        <v>100.421875</v>
+        <v>100.4765625</v>
       </c>
       <c r="J53" s="78">
         <f ca="1"/>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="K53" s="60">
         <f ca="1"/>
-        <v>83.790099999999995</v>
+        <v>83.825500000000005</v>
       </c>
       <c r="L53" s="78">
         <f ca="1"/>
@@ -22945,7 +22945,7 @@
       </c>
       <c r="M53" s="55">
         <f ca="1"/>
-        <v>99.7265625</v>
+        <v>99.7578125</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
